--- a/backup/Kyiv_Districts.xlsx
+++ b/backup/Kyiv_Districts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsapin/Desktop/projects/Coursera_Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DD8814-CA79-BF40-990D-7BB7033F8CC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F64AB3-26F0-CC48-9658-1620E9B1C929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12360" yWindow="460" windowWidth="10000" windowHeight="9840" xr2:uid="{04F66F15-98DE-5F44-B346-C7F3C9796AE3}"/>
   </bookViews>
